--- a/tripAdvisor/src/main/resources/TripAdvisor_FlightsPage_ExpectedElements.xlsx
+++ b/tripAdvisor/src/main/resources/TripAdvisor_FlightsPage_ExpectedElements.xlsx
@@ -9,11 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16380" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14320" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Homepage Title" sheetId="1" r:id="rId1"/>
     <sheet name="MoreCategory List" sheetId="2" r:id="rId2"/>
+    <sheet name="Ellips Menu" sheetId="3" r:id="rId3"/>
+    <sheet name="Class Type List" sheetId="4" r:id="rId4"/>
+    <sheet name="Currency Box List" sheetId="5" r:id="rId5"/>
+    <sheet name="Sort By Box" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -368,7 +372,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -380,4 +384,76 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/tripAdvisor/src/main/resources/TripAdvisor_FlightsPage_ExpectedElements.xlsx
+++ b/tripAdvisor/src/main/resources/TripAdvisor_FlightsPage_ExpectedElements.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14320" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16380" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Homepage Title" sheetId="1" r:id="rId1"/>
@@ -372,7 +372,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -444,7 +444,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
